--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyES.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BDB45-4DFF-4090-8A1E-2EF7F8FD3726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237D98A-C0C1-470D-B0FF-8F6A68BB8EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="13110" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="283">
   <si>
     <t>DataSet</t>
   </si>
@@ -907,6 +907,33 @@
   </si>
   <si>
     <t>Información de la cuenta,Libreta de direcciones,Mis pedidos,Gift Registry,My Wishlist,Tarjeta de regalo,Crédito en la tienda,Mis suscripciones agotadas,Métodos de pago almacenados,Suscripciones al boletín informativo</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>Fliters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Mochilas y bolsos</t>
+  </si>
+  <si>
+    <t>Viajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stuff Pack </t>
+  </si>
+  <si>
+    <t>Orange</t>
   </si>
 </sst>
 </file>
@@ -2716,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EA8A0A-8AB3-4C75-B640-7EA39F21ED70}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,12 +2758,15 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2774,33 +2804,42 @@
         <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2837,78 +2876,101 @@
       <c r="L2" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>200</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>149</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
-      <c r="S8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" t="s">
-        <v>151</v>
+      <c r="U8" t="s">
+        <v>279</v>
+      </c>
+      <c r="V8" t="s">
+        <v>274</v>
+      </c>
+      <c r="W8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
